--- a/Results/Farm_Data.xlsx
+++ b/Results/Farm_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Grazing</t>
   </si>
@@ -28,10 +28,13 @@
     <t>Dates</t>
   </si>
   <si>
-    <t>Field: E, Size sqm: 60, Type of grass: 2.</t>
+    <t>Field: E, Size sqm: 70, Type of grass: 3.</t>
   </si>
   <si>
-    <t>Field: Q, Size sqm: 60, Type of grass: 2.</t>
+    <t>Field: Q, Size sqm: 70, Type of grass: 3.</t>
+  </si>
+  <si>
+    <t>Field: W, Size sqm: 70, Type of grass: 3.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,13 +894,13 @@
         <v>43525</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -912,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1350,10 +1353,478 @@
         <v>0</v>
       </c>
     </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2">
+        <v>43525</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2">
+        <v>43526</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2">
+        <v>43527</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2">
+        <v>43528</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2">
+        <v>43529</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2">
+        <v>43530</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2">
+        <v>43531</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2">
+        <v>43532</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2">
+        <v>43533</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2">
+        <v>43534</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2">
+        <v>43535</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2">
+        <v>43536</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2">
+        <v>43537</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2">
+        <v>43538</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2">
+        <v>43539</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2">
+        <v>43540</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2">
+        <v>43541</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2">
+        <v>43542</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2">
+        <v>43543</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2">
+        <v>43544</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2">
+        <v>43545</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2">
+        <v>43546</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2">
+        <v>43547</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2">
+        <v>43548</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2">
+        <v>43549</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2">
+        <v>43550</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2">
+        <v>43551</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2">
+        <v>43552</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2">
+        <v>43553</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2">
+        <v>43554</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2">
+        <v>43555</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A32"/>
     <mergeCell ref="A33:A63"/>
+    <mergeCell ref="A64:A94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results/Farm_Data.xlsx
+++ b/Results/Farm_Data.xlsx
@@ -31,10 +31,10 @@
     <t>Field: E, Size sqm: 70, Type of grass: 3.</t>
   </si>
   <si>
-    <t>Field: Q, Size sqm: 70, Type of grass: 3.</t>
+    <t>Field: Q, Size sqm: 50, Type of grass: 1.</t>
   </si>
   <si>
-    <t>Field: W, Size sqm: 70, Type of grass: 3.</t>
+    <t>Field: W, Size sqm: 60, Type of grass: 2.</t>
   </si>
 </sst>
 </file>
